--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -110,7 +110,7 @@
     <t xml:space="preserve">name</t>
   </si>
   <si>
-    <t xml:space="preserve">edition</t>
+    <t xml:space="preserve">game_build</t>
   </si>
   <si>
     <t xml:space="preserve">action</t>
@@ -125,7 +125,7 @@
     <t xml:space="preserve">C01.A</t>
   </si>
   <si>
-    <t xml:space="preserve">essential</t>
+    <t xml:space="preserve">original</t>
   </si>
   <si>
     <t xml:space="preserve">reboots</t>
@@ -349,7 +349,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -479,7 +479,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.27"/>
@@ -604,13 +604,13 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C17" activeCellId="0" sqref="C17"/>
+      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="8.64"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.04"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="26.72"/>
   </cols>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,14 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="action_board" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="rus_answer" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="action_tiles" sheetId="3" state="visible" r:id="rId4"/>
-    <sheet name="store" sheetId="4" state="visible" r:id="rId5"/>
-    <sheet name="buildings" sheetId="5" state="visible" r:id="rId6"/>
+    <sheet name="default_token_storage" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -24,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
   <si>
     <t xml:space="preserve">marker</t>
   </si>
@@ -179,76 +178,58 @@
     <t xml:space="preserve">C03.B</t>
   </si>
   <si>
-    <t xml:space="preserve">Era</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EXOs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">gained EXOs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VPs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">building</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Plant 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Plant 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Power Plant 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Support 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Support 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Life Support 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factory 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lab 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superproject 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superproject 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superproject 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomaly 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomaly 2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomaly 3</t>
+    <t xml:space="preserve">tokens</t>
+  </si>
+  <si>
+    <t xml:space="preserve">die</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">if_limit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{'ch': 5, 'ex': 5}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarpTiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0,1,1,1,1,2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradoxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anomaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPlants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeSupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superprojects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anomalies</t>
   </si>
 </sst>
 </file>
@@ -479,7 +460,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="37.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.27"/>
@@ -603,11 +584,11 @@
   </sheetPr>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="11.06"/>
@@ -750,199 +731,169 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.7"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="n">
-        <v>1</v>
+      <c r="A2" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="n">
-        <v>2</v>
+      <c r="A3" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="n">
-        <v>3</v>
+      <c r="A4" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="n">
-        <v>4</v>
+      <c r="A5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="n">
-        <v>5</v>
+      <c r="A6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="n">
-        <v>6</v>
+      <c r="A7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-  </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
-  <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
+      <c r="A8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>67</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="0" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="0" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="0" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="0" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="0" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="0" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="0" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0" t="s">
-        <v>74</v>
+      <c r="B10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E10" s="0" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,13 +5,14 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="action_board" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="rus_answer" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="action_tiles" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="default_token_storage" sheetId="4" state="visible" r:id="rId5"/>
+    <sheet name="chronology" sheetId="5" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
   <si>
     <t xml:space="preserve">marker</t>
   </si>
@@ -230,14 +231,18 @@
   </si>
   <si>
     <t xml:space="preserve">Anomalies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IMPACT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -305,8 +310,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -456,7 +465,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
@@ -571,8 +580,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -720,8 +729,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -733,7 +742,7 @@
   </sheetPr>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F11" activeCellId="0" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -905,4 +914,146 @@
     <oddFooter/>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H16"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="B2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="E2" s="1" t="n">
+        <f aca="false">FALSE()</f>
+        <v>0</v>
+      </c>
+      <c r="F2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <f aca="false">TRUE()</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="0" t="str">
+        <f aca="false">default_token_storage!A2</f>
+        <v>EnergyPool</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="0" t="str">
+        <f aca="false">default_token_storage!A3</f>
+        <v>WarpTiles</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="str">
+        <f aca="false">default_token_storage!A4</f>
+        <v>Paradoxes</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="str">
+        <f aca="false">default_token_storage!A5</f>
+        <v>PowerPlants</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="str">
+        <f aca="false">default_token_storage!A6</f>
+        <v>Factories</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="str">
+        <f aca="false">default_token_storage!A7</f>
+        <v>LifeSupport</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="str">
+        <f aca="false">default_token_storage!A8</f>
+        <v>Labs</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="str">
+        <f aca="false">default_token_storage!A9</f>
+        <v>Superprojects</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="str">
+        <f aca="false">default_token_storage!A10</f>
+        <v>Anomalies</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,10 +5,10 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="action_board" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="action_deck" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="rus_answer" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="action_tiles" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="default_token_storage" sheetId="4" state="visible" r:id="rId5"/>
@@ -24,12 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="69">
   <si>
     <t xml:space="preserve">marker</t>
-  </si>
-  <si>
-    <t xml:space="preserve">start</t>
   </si>
   <si>
     <t xml:space="preserve">to construct a Power Plant</t>
@@ -242,7 +239,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
+    <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -338,8 +335,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -354,20 +351,20 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -375,19 +372,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>3</v>
-      </c>
       <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -395,19 +392,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -415,19 +412,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -435,16 +432,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>6</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -466,7 +463,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
+      <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -482,20 +479,20 @@
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="0" t="n">
         <v>1</v>
       </c>
       <c r="C1" s="0" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="0" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="0" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -503,19 +500,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -523,19 +520,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>22</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -543,19 +540,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -563,16 +560,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -580,8 +577,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -607,121 +604,121 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>30</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>48</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -729,8 +726,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -758,72 +755,72 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>8</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0</v>
@@ -832,12 +829,12 @@
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
@@ -846,12 +843,12 @@
         <v>3</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
@@ -860,12 +857,12 @@
         <v>3</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
@@ -874,12 +871,12 @@
         <v>3</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
@@ -888,12 +885,12 @@
         <v>3</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
@@ -902,7 +899,7 @@
         <v>3</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -923,11 +920,11 @@
   </sheetPr>
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.15234375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
   </cols>
@@ -957,7 +954,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -1052,8 +1049,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -330,7 +330,7 @@
     <t xml:space="preserve">Breaktroughs</t>
   </si>
   <si>
-    <t xml:space="preserve">{'[ ]': 0, '/\': 0, '( )': 0}</t>
+    <t xml:space="preserve">{'[ ]': 0, '/\\': 0, '( )': 0}</t>
   </si>
   <si>
     <t xml:space="preserve">'[ ]', '/\', '( )'</t>
@@ -1179,7 +1179,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D6" activeCellId="0" sqref="D6"/>
+      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,7 +13,8 @@
     <sheet name="chronology" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="action_tiles" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="default_token_storage" sheetId="5" state="visible" r:id="rId6"/>
-    <sheet name="rus_answer" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="tracks" sheetId="6" state="visible" r:id="rId7"/>
+    <sheet name="rus_answer" sheetId="7" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -177,43 +178,43 @@
     <t xml:space="preserve">marker</t>
   </si>
   <si>
-    <t xml:space="preserve">to construct a Power Plant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to mine resourse</t>
+    <t xml:space="preserve">construct a Power Plant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mine resource</t>
   </si>
   <si>
     <t xml:space="preserve">I</t>
   </si>
   <si>
-    <t xml:space="preserve">to recruit (get 1VP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to construct a Life Support</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to time travel</t>
+    <t xml:space="preserve">recruit (get 1VP)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construct a Life Support</t>
+  </si>
+  <si>
+    <t xml:space="preserve">travels through time</t>
   </si>
   <si>
     <t xml:space="preserve">II</t>
   </si>
   <si>
-    <t xml:space="preserve">to construct a Superproject</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to seal an anomaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to construct a Factory</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to construct a Lab</t>
-  </si>
-  <si>
-    <t xml:space="preserve">to recruit genius/to research</t>
+    <t xml:space="preserve">construct a Superproject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">removes anomaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construct a Factory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">construct a Lab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">recruit genius/research</t>
   </si>
   <si>
     <t xml:space="preserve">III</t>
@@ -288,6 +289,9 @@
     <t xml:space="preserve">tokens</t>
   </si>
   <si>
+    <t xml:space="preserve">step</t>
+  </si>
+  <si>
     <t xml:space="preserve">die</t>
   </si>
   <si>
@@ -352,6 +356,12 @@
   </si>
   <si>
     <t xml:space="preserve">Anomalies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time travel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VP</t>
   </si>
   <si>
     <t xml:space="preserve">построить электростанцию</t>
@@ -747,8 +757,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -760,14 +770,14 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="28.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.45"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="25.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="28.86"/>
   </cols>
@@ -792,7 +802,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
         <v>2</v>
       </c>
@@ -1016,8 +1026,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1165,8 +1175,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1176,20 +1186,20 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1208,154 +1218,157 @@
       <c r="E1" s="0" t="s">
         <v>89</v>
       </c>
+      <c r="F1" s="0" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="0" t="s">
         <v>92</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="F2" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="D3" s="0" t="s">
         <v>96</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>95</v>
-      </c>
       <c r="D4" s="0" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E4" s="0" t="s">
         <v>99</v>
       </c>
+      <c r="F4" s="0" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="D5" s="0" t="s">
-        <v>92</v>
+      <c r="D5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>93</v>
       </c>
+      <c r="F5" s="0" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B6" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E6" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D7" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E7" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D8" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E8" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D9" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E9" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B10" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D10" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E10" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F10" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="D11" s="0" t="s">
-        <v>98</v>
-      </c>
       <c r="E11" s="0" t="s">
-        <v>93</v>
+        <v>99</v>
+      </c>
+      <c r="F11" s="0" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1370,6 +1383,85 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="0" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="G2" s="0" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="0" t="n">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
@@ -1414,19 +1506,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1434,19 +1526,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1454,19 +1546,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1474,13 +1566,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>112</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>109</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>63</v>
@@ -1491,8 +1583,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -223,6 +223,42 @@
     <t xml:space="preserve">IMPACT</t>
   </si>
   <si>
+    <t xml:space="preserve">Exosuits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EnergyPool</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WarpTiles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paradoxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Breaktroughs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PowerPlants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Factories</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LifeSupport</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Labs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Superprojects</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anomalies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VP</t>
+  </si>
+  <si>
     <t xml:space="preserve">action</t>
   </si>
   <si>
@@ -286,82 +322,52 @@
     <t xml:space="preserve">C03.B</t>
   </si>
   <si>
-    <t xml:space="preserve">tokens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">step</t>
+    <t xml:space="preserve">default_value</t>
+  </si>
+  <si>
+    <t xml:space="preserve">limit</t>
   </si>
   <si>
     <t xml:space="preserve">die</t>
   </si>
   <si>
-    <t xml:space="preserve">limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">if_limit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EnergyPool</t>
+    <t xml:space="preserve">powers up Exosuits, need exosuit action</t>
+  </si>
+  <si>
+    <t xml:space="preserve">powers up Exosuits, gains Energy Pack</t>
   </si>
   <si>
     <t xml:space="preserve">{'ch': 5, 'ex': 5}</t>
   </si>
   <si>
-    <t xml:space="preserve">0, 20</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WarpTiles</t>
+    <t xml:space="preserve">places WarpTiles, travels through time, gains an Anomaly</t>
   </si>
   <si>
     <t xml:space="preserve">0,1,1,1,1,2</t>
   </si>
   <si>
-    <t xml:space="preserve">8, 0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paradoxes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0, 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">anomaly</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Breaktroughs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">{'[ ]': 0, '/\\': 0, '( )': 0}</t>
+    <t xml:space="preserve">rolls for Paradoxes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reseach, construct a SuperProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[]</t>
   </si>
   <si>
     <t xml:space="preserve">'[ ]', '/\', '( )'</t>
   </si>
   <si>
-    <t xml:space="preserve">PowerPlants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Factories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LifeSupport</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Labs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Superprojects</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anomalies</t>
+    <t xml:space="preserve">construct a SuperProject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gains an Anomaly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gains VP, failed action</t>
   </si>
   <si>
     <t xml:space="preserve">Time travel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">VP</t>
   </si>
   <si>
     <t xml:space="preserve">построить электростанцию</t>
@@ -770,8 +776,8 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -895,15 +901,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3"/>
+      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.82"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -963,64 +969,75 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="str">
-        <f aca="false">default_token_storage!A2</f>
-        <v>EnergyPool</v>
-      </c>
+      <c r="A3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="0" t="str">
-        <f aca="false">default_token_storage!A3</f>
-        <v>WarpTiles</v>
+      <c r="A4" s="0" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="0" t="str">
-        <f aca="false">default_token_storage!A4</f>
-        <v>Paradoxes</v>
+      <c r="A5" s="0" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="0" t="str">
-        <f aca="false">default_token_storage!A6</f>
-        <v>PowerPlants</v>
+      <c r="A6" s="0" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="0" t="str">
-        <f aca="false">default_token_storage!A7</f>
-        <v>Factories</v>
+      <c r="A7" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="0" t="str">
-        <f aca="false">default_token_storage!A8</f>
-        <v>LifeSupport</v>
+      <c r="A8" s="0" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="0" t="str">
-        <f aca="false">default_token_storage!A9</f>
-        <v>Labs</v>
+      <c r="A9" s="0" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="0" t="str">
-        <f aca="false">default_token_storage!A10</f>
-        <v>Superprojects</v>
+      <c r="A10" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="0" t="str">
-        <f aca="false">default_token_storage!A11</f>
-        <v>Anomalies</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="A11" s="0" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>76</v>
+      </c>
+    </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1040,7 +1057,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E4" activeCellId="0" sqref="E4"/>
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1059,115 +1076,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1186,20 +1203,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D23" activeCellId="0" sqref="D23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="12.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1207,168 +1225,193 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>91</v>
+        <v>65</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>94</v>
+        <v>66</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>96</v>
+        <v>67</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>101</v>
+        <v>68</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>94</v>
+        <v>69</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>94</v>
+        <v>70</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>94</v>
+        <v>71</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="B9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>94</v>
+        <v>72</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="B10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>94</v>
+        <v>73</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>94</v>
+        <v>74</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1393,14 +1436,14 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1426,7 +1469,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1506,19 +1549,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1526,19 +1569,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>57</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1546,19 +1589,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>52</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1566,13 +1609,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>114</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>112</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>63</v>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,7 +46,7 @@
     <t xml:space="preserve">workers</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
+    <t xml:space="preserve">ORIGINAL</t>
   </si>
   <si>
     <t xml:space="preserve">8: 1 VP</t>
@@ -133,7 +133,7 @@
     <t xml:space="preserve">flux cores</t>
   </si>
   <si>
-    <t xml:space="preserve">fractures of time</t>
+    <t xml:space="preserve">FRACTURES OF TIME</t>
   </si>
   <si>
     <t xml:space="preserve">4: 1 VP</t>
@@ -142,9 +142,6 @@
     <t xml:space="preserve">technologies</t>
   </si>
   <si>
-    <t xml:space="preserve">hypersync future actions</t>
-  </si>
-  <si>
     <t xml:space="preserve">4: 2 VP</t>
   </si>
   <si>
@@ -154,7 +151,7 @@
     <t xml:space="preserve">experiments</t>
   </si>
   <si>
-    <t xml:space="preserve">doomsday</t>
+    <t xml:space="preserve">DOOMSDAY</t>
   </si>
   <si>
     <t xml:space="preserve">10: 4 VP</t>
@@ -163,7 +160,7 @@
     <t xml:space="preserve">missions</t>
   </si>
   <si>
-    <t xml:space="preserve">pioneers of new earth</t>
+    <t xml:space="preserve">PIONEERS OF NEW EARTH</t>
   </si>
   <si>
     <t xml:space="preserve">12: 4 VP</t>
@@ -172,7 +169,7 @@
     <t xml:space="preserve">guardians</t>
   </si>
   <si>
-    <t xml:space="preserve">guardians of the counsil</t>
+    <t xml:space="preserve">GUARDIANS OF THE COUNCIL</t>
   </si>
   <si>
     <t xml:space="preserve">marker</t>
@@ -411,7 +408,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -433,6 +430,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -484,8 +487,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -493,7 +500,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -516,14 +523,14 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="21.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="25.83"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -547,7 +554,7 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
@@ -564,7 +571,7 @@
       <c r="A3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
@@ -581,7 +588,7 @@
       <c r="A4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
@@ -598,7 +605,7 @@
       <c r="A5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
@@ -615,7 +622,7 @@
       <c r="A6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E6" s="0" t="s">
@@ -626,7 +633,7 @@
       <c r="A7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
@@ -643,7 +650,7 @@
       <c r="A8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="0" t="s">
@@ -660,7 +667,7 @@
       <c r="A9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="s">
+      <c r="B9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C9" s="0" t="s">
@@ -695,24 +702,24 @@
         <v>37</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>42</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>36</v>
@@ -721,15 +728,15 @@
         <v>32</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>45</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>23</v>
@@ -738,24 +745,24 @@
         <v>24</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>47</v>
-      </c>
-      <c r="B14" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="C14" s="0" t="s">
         <v>27</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>39</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -790,7 +797,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -813,19 +820,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,19 +840,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,19 +860,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,16 +880,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>54</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -937,102 +944,102 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B2" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="D2" s="1" t="n">
+      <c r="D2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="E2" s="1" t="n">
+      <c r="E2" s="2" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="F2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="G2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="H2" s="2" t="n">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1057,7 +1064,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,115 +1083,115 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C2" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>81</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>82</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>85</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>86</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>89</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>92</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>6</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -1203,21 +1210,22 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B14" activeCellId="0" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="23.28"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="48.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="10.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="13.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.83"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="48.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="19.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="10.62"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="13.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,192 +1233,195 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>99</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="0" t="n">
-        <v>0</v>
+        <v>64</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" s="0" t="n">
         <v>7</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>102</v>
       </c>
-      <c r="C3" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="D3" s="0" t="n">
+      <c r="E3" s="0" t="n">
         <v>21</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="B4" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>104</v>
-      </c>
-      <c r="C4" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="C5" s="0" t="n">
-        <v>0</v>
+        <v>67</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>105</v>
       </c>
       <c r="D5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>105</v>
+      <c r="F5" s="0" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>107</v>
       </c>
-      <c r="C6" s="0" t="s">
+      <c r="E6" s="0" t="n">
+        <v>11</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="0" t="n">
-        <v>0</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>49</v>
       </c>
       <c r="D7" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
+        <v>70</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="D8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
+        <v>71</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="D9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="0" t="n">
-        <v>0</v>
+        <v>72</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="D10" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
+        <v>73</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>109</v>
       </c>
       <c r="D11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="C12" s="0" t="n">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="0" t="n">
         <v>4</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
+        <v>75</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>111</v>
       </c>
       <c r="D13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
         <v>31</v>
       </c>
     </row>
@@ -1436,14 +1447,14 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1469,7 +1480,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1526,7 +1537,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -1549,19 +1560,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>116</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,19 +1580,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>120</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,19 +1600,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>122</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>123</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,16 +1620,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>116</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>117</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="123">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -46,9 +46,6 @@
     <t xml:space="preserve">workers</t>
   </si>
   <si>
-    <t xml:space="preserve">original</t>
-  </si>
-  <si>
     <t xml:space="preserve">8: 1 VP</t>
   </si>
   <si>
@@ -140,9 +137,6 @@
   </si>
   <si>
     <t xml:space="preserve">technologies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">hypersync future actions</t>
   </si>
   <si>
     <t xml:space="preserve">4: 2 VP</t>
@@ -516,8 +510,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -547,215 +541,191 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -763,8 +733,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -790,7 +760,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -813,19 +783,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -833,19 +803,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -853,19 +823,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -873,16 +843,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -937,7 +907,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="1" t="n">
         <f aca="false">FALSE()</f>
@@ -970,7 +940,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -982,57 +952,57 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1043,8 +1013,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1057,7 +1027,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1076,115 +1046,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="D2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1192,8 +1144,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1205,7 +1157,7 @@
   </sheetPr>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
@@ -1225,24 +1177,24 @@
         <v>0</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="D1" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>0</v>
@@ -1253,13 +1205,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D3" s="0" t="n">
         <v>21</v>
@@ -1267,10 +1219,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>8</v>
@@ -1279,15 +1231,15 @@
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>0</v>
@@ -1296,32 +1248,32 @@
         <v>3</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>0</v>
@@ -1332,10 +1284,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>0</v>
@@ -1346,10 +1298,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>0</v>
@@ -1360,10 +1312,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>0</v>
@@ -1374,10 +1326,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>0</v>
@@ -1388,10 +1340,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>0</v>
@@ -1402,10 +1354,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>0</v>
@@ -1436,14 +1388,14 @@
       <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="10.62"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1469,7 +1421,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1498,8 +1450,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1526,7 +1478,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -1549,19 +1501,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,19 +1521,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1589,19 +1541,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>121</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1609,16 +1561,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1626,8 +1578,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -44,9 +44,6 @@
   </si>
   <si>
     <t xml:space="preserve">workers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ORIGINAL</t>
   </si>
   <si>
     <t xml:space="preserve">8: 1 VP</t>
@@ -408,7 +405,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;ИСТИНА&quot;;&quot;ИСТИНА&quot;;&quot;ЛОЖЬ&quot;"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -430,12 +427,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -487,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,10 +488,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,8 +510,8 @@
   </sheetPr>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B23" activeCellId="0" sqref="B23"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -554,215 +541,199 @@
       <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="1"/>
+      <c r="C2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1"/>
+      <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>12</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" s="0" t="s">
+      <c r="E4" s="0" t="s">
         <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1"/>
+      <c r="C5" s="0" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="0" t="s">
+      <c r="E5" s="0" t="s">
         <v>18</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1"/>
+      <c r="E6" s="0" t="s">
         <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="0" t="s">
+      <c r="D7" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="0" t="s">
+      <c r="E7" s="0" t="s">
         <v>24</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1"/>
+      <c r="C8" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="0" t="s">
+      <c r="D8" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="D8" s="0" t="s">
+      <c r="E8" s="0" t="s">
         <v>28</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="0" t="s">
+      <c r="D9" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="0" t="s">
+      <c r="E9" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="D10" s="0" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="B11" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="0" t="s">
+      <c r="E11" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="B12" s="0" t="s">
+      <c r="C12" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="0" t="s">
         <v>41</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="0" t="s">
+      <c r="C13" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="0" t="s">
         <v>44</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="C14" s="0" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -797,7 +768,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -820,19 +791,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>52</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -840,19 +811,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>57</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -860,19 +831,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>60</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -880,16 +851,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>53</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -944,7 +915,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B2" s="2" t="n">
         <f aca="false">FALSE()</f>
@@ -977,7 +948,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -989,57 +960,57 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1064,7 +1035,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C14" activeCellId="0" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1083,115 +1054,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>76</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>77</v>
-      </c>
-      <c r="E1" s="0" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>79</v>
       </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="E2" s="0" t="s">
         <v>81</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>85</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="C4" s="0" t="s">
         <v>87</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="0" t="s">
+      <c r="D4" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>88</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="0" t="s">
+      <c r="D5" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>91</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="0" t="s">
+      <c r="D6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="0" t="s">
-        <v>6</v>
+        <v>95</v>
       </c>
       <c r="C7" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>94</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -1236,24 +1189,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D1" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="0" t="s">
         <v>97</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>98</v>
-      </c>
-      <c r="F1" s="0" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -1264,13 +1217,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>101</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>102</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>21</v>
@@ -1278,10 +1231,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -1290,15 +1243,15 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -1307,32 +1260,32 @@
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="D6" s="0" t="s">
         <v>106</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>107</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="F6" s="3" t="s">
-        <v>108</v>
+      <c r="F6" s="1" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="0" t="n">
         <v>0</v>
@@ -1343,10 +1296,10 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="D8" s="0" t="n">
         <v>0</v>
@@ -1357,10 +1310,10 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>54</v>
+        <v>70</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="D9" s="0" t="n">
         <v>0</v>
@@ -1371,10 +1324,10 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>60</v>
+        <v>71</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="D10" s="0" t="n">
         <v>0</v>
@@ -1385,10 +1338,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>109</v>
+        <v>72</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1399,10 +1352,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -1413,10 +1366,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -1454,7 +1407,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1480,7 +1433,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1522,7 +1475,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1537,7 +1490,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>1</v>
@@ -1560,19 +1513,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C2" s="0" t="s">
         <v>113</v>
       </c>
-      <c r="C2" s="0" t="s">
+      <c r="D2" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>115</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,19 +1533,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="C3" s="0" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="0" t="s">
+      <c r="D3" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>119</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,19 +1553,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
         <v>122</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1620,16 +1573,16 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="0" t="s">
-        <v>116</v>
-      </c>
       <c r="D5" s="0" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="objectives" sheetId="1" state="visible" r:id="rId2"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t xml:space="preserve">IMPACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exosuit_limit</t>
   </si>
   <si>
     <t xml:space="preserve">Exosuits</t>
@@ -478,7 +481,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -488,6 +491,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -879,10 +886,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -918,50 +925,65 @@
         <v>62</v>
       </c>
       <c r="B2" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="C2" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="D2" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="E2" s="2" t="n">
-        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="F2" s="2" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="G2" s="2" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
       <c r="H2" s="2" t="n">
-        <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
+      <c r="I2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="B3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="C3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="E3" s="3" t="n">
+        <v>6</v>
+      </c>
+      <c r="F3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="G3" s="3" t="n">
+        <v>4</v>
+      </c>
+      <c r="H3" s="3" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>64</v>
       </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
@@ -1013,9 +1035,14 @@
         <v>74</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>75</v>
+      </c>
+    </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -1054,97 +1081,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>95</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1189,24 +1216,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -1217,13 +1244,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>21</v>
@@ -1231,10 +1258,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -1243,15 +1270,15 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -1260,29 +1287,29 @@
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>48</v>
@@ -1296,7 +1323,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -1310,7 +1337,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -1324,7 +1351,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1338,10 +1365,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1352,10 +1379,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -1366,10 +1393,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -1407,7 +1434,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1433,7 +1460,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1475,7 +1502,7 @@
   </sheetPr>
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A5" activeCellId="0" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -1513,19 +1540,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1533,19 +1560,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1553,19 +1580,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1573,13 +1600,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>61</v>

--- a/chronossus/chronossus_action_board.xlsx
+++ b/chronossus/chronossus_action_board.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="131">
   <si>
     <t xml:space="preserve">name</t>
   </si>
@@ -212,6 +212,27 @@
   </si>
   <si>
     <t xml:space="preserve">III</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Second</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Third</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fifth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sixth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Seventh</t>
   </si>
   <si>
     <t xml:space="preserve">IMPACT</t>
@@ -481,7 +502,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -491,10 +512,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -748,8 +765,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -886,7 +903,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
@@ -922,134 +939,160 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="0" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="C2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="D2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="F2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="H2" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="2"/>
+      <c r="C2" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="E3" s="3" t="n">
-        <v>6</v>
-      </c>
-      <c r="F3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="G3" s="3" t="n">
-        <v>4</v>
-      </c>
-      <c r="H3" s="3" t="n">
-        <v>4</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="D3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="2"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="G4" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>65</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>82</v>
+      </c>
+    </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1081,97 +1124,97 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="C4" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="0" t="s">
         <v>88</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="E4" s="0" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -1179,8 +1222,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1216,24 +1259,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="D2" s="0" t="n">
         <v>0</v>
@@ -1244,13 +1287,13 @@
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="E3" s="0" t="n">
         <v>21</v>
@@ -1258,10 +1301,10 @@
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="D4" s="0" t="n">
         <v>8</v>
@@ -1270,15 +1313,15 @@
         <v>9</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="D5" s="0" t="n">
         <v>0</v>
@@ -1287,29 +1330,29 @@
         <v>3</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E6" s="0" t="n">
         <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="C7" s="0" t="s">
         <v>48</v>
@@ -1323,7 +1366,7 @@
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>58</v>
@@ -1337,7 +1380,7 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>53</v>
@@ -1351,7 +1394,7 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>59</v>
@@ -1365,10 +1408,10 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="D11" s="0" t="n">
         <v>0</v>
@@ -1379,10 +1422,10 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="C12" s="0" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D12" s="0" t="n">
         <v>0</v>
@@ -1393,10 +1436,10 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="D13" s="0" t="n">
         <v>0</v>
@@ -1434,7 +1477,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="B1" s="0" t="n">
         <v>0</v>
@@ -1460,7 +1503,7 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>0</v>
@@ -1489,8 +1532,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
@@ -1540,19 +1583,19 @@
         <v>2</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>50</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1560,19 +1603,19 @@
         <v>3</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>55</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1580,19 +1623,19 @@
         <v>4</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>50</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,13 +1643,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>61</v>
@@ -1617,8 +1660,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;KffffffСтраница &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>